--- a/data/trans_camb/P07_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P07_R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-8.003906039240993</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.19976658657605</v>
+        <v>-7.19976658657604</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-21.87182074844609</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.33370802023696</v>
+        <v>-15.39166875726664</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.42013423970334</v>
+        <v>-15.79171737310677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.72701335515753</v>
+        <v>-13.82691766960812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-30.84659701241294</v>
+        <v>-30.15103453388969</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-22.24366893578744</v>
+        <v>-23.43955283834776</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-20.62390813764507</v>
+        <v>-20.72900858369039</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-19.98073461980611</v>
+        <v>-20.62151931619578</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-16.41873666748853</v>
+        <v>-17.08960687336985</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.73193989720984</v>
+        <v>-15.30455594647166</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.764883410238328</v>
+        <v>-1.408265680165226</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.238220123464363</v>
+        <v>-1.575158888654742</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.957185444330518</v>
+        <v>-0.9987221558593208</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-14.36120847584004</v>
+        <v>-14.05757391359926</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-7.503592239220576</v>
+        <v>-7.69647780517617</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.98480534229397</v>
+        <v>-7.169352285618699</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-10.01558537145991</v>
+        <v>-9.649349932445519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-6.128174331876105</v>
+        <v>-6.584068974435741</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.785149299653346</v>
+        <v>-6.285982703531425</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.09566015605228485</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.08604933539139888</v>
+        <v>-0.08604933539139875</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2673989903741454</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1787797537034641</v>
+        <v>-0.1794688171444344</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1647957516011506</v>
+        <v>-0.1781983637621919</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.159493006980391</v>
+        <v>-0.1615310266847439</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3610465022087318</v>
+        <v>-0.3562388568264238</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2629006665090505</v>
+        <v>-0.275879164598666</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2423167729401098</v>
+        <v>-0.2425594042931528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2360074827604789</v>
+        <v>-0.2409857560302263</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1940858254058823</v>
+        <v>-0.2015752276956908</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1756918348305703</v>
+        <v>-0.1806191687164948</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.02307242569537143</v>
+        <v>-0.0202561141559889</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.0145182029281951</v>
+        <v>-0.01904790402111861</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01241739940525214</v>
+        <v>-0.01310307647595338</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.181225721902678</v>
+        <v>-0.1735189980931371</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09458502695358423</v>
+        <v>-0.09687588913493503</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1025150910823599</v>
+        <v>-0.09230180120934879</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1266617988784715</v>
+        <v>-0.1202394717233423</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.07923373166809951</v>
+        <v>-0.07921800643469415</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.07451628657714483</v>
+        <v>-0.07873252769078495</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.849563234286467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.646426207221853</v>
+        <v>2.646426207221864</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9772817420672597</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.523125344152025</v>
+        <v>-4.933596522364421</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.85186238999498</v>
+        <v>-1.592848200717667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.322953746646067</v>
+        <v>-2.545575098065543</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.564538406288914</v>
+        <v>-5.314430276289261</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.170181578301261</v>
+        <v>4.144200100988593</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.321901681336218</v>
+        <v>8.366819919103738</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.189969181134485</v>
+        <v>-3.61838230572934</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.899645630012786</v>
+        <v>2.796918821527024</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.463820772130577</v>
+        <v>4.747185865800379</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.245582382096416</v>
+        <v>5.308485683638561</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.038632658966367</v>
+        <v>7.964289382052056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.715169104569446</v>
+        <v>7.30802802046527</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.705652804498562</v>
+        <v>6.725732998482126</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.32065065399705</v>
+        <v>15.21047987180134</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.46460874785405</v>
+        <v>18.9349319560789</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.764616869945356</v>
+        <v>4.333697948336048</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.54268811434753</v>
+        <v>10.15163749056261</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.85023078803336</v>
+        <v>11.94726547119407</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.03450282591251967</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.03204322038530553</v>
+        <v>0.03204322038530567</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.01440992779774566</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0537408104738909</v>
+        <v>-0.05920803423284974</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02173264137686865</v>
+        <v>-0.01848347497045319</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0276274473347586</v>
+        <v>-0.03028843660557845</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07730266536152439</v>
+        <v>-0.07519314696877816</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05960764031543844</v>
+        <v>0.05810125234774091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1182093508838504</v>
+        <v>0.1171054375909041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04145979181091958</v>
+        <v>-0.04725140985627706</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03748090673472633</v>
+        <v>0.03624846511198596</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05826760120616641</v>
+        <v>0.06217194851281796</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06593979996715903</v>
+        <v>0.06648251082766346</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1016263926167719</v>
+        <v>0.09948666611892189</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09672230348939018</v>
+        <v>0.09182823672176456</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1025308172781212</v>
+        <v>0.1025018659262121</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2380880167837599</v>
+        <v>0.2368893113099255</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2844359779008269</v>
+        <v>0.2946618296963932</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06667734650844463</v>
+        <v>0.05937891439327219</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1454967644227914</v>
+        <v>0.140649329307555</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.162760590939581</v>
+        <v>0.1673630646118755</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>15.84983842997414</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>10.46605550305568</v>
+        <v>10.46605550305567</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.9008422853966</v>
@@ -1092,7 +1092,7 @@
         <v>8.906841511008256</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.870219228226956</v>
+        <v>2.870219228226933</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.44522874745432</v>
+        <v>-7.452405372866745</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.530807749958247</v>
+        <v>-3.565233437200516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.43229587597843</v>
+        <v>-10.89739977584227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.131443882815955</v>
+        <v>2.224808269574258</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>8.543866920740227</v>
+        <v>8.557658006929989</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.498693540985496</v>
+        <v>4.206235708580167</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.8947735385830151</v>
+        <v>-0.9932276773179847</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.206354617025418</v>
+        <v>4.751611581551794</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.202440359476783</v>
+        <v>-1.524123425522767</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.266193167438176</v>
+        <v>4.039523388727646</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.124827540667493</v>
+        <v>7.012693804653983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.532556683935889</v>
+        <v>0.1162620269365486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.74732016008337</v>
+        <v>16.41006346781561</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.3006359646896</v>
+        <v>22.46318640099051</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.52854724320223</v>
+        <v>16.60313366016625</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.495643150920847</v>
+        <v>8.463955146749774</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.22969520960872</v>
+        <v>13.20175101782197</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.513675092454015</v>
+        <v>6.966915972353213</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2348650867671935</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1550874505563933</v>
+        <v>0.1550874505563931</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.05116980069309385</v>
@@ -1197,7 +1197,7 @@
         <v>0.1168366397763579</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.03765047010582403</v>
+        <v>0.03765047010582374</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08400203418985548</v>
+        <v>-0.08521761284061839</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03955606622638776</v>
+        <v>-0.0397628574461357</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1182753687259559</v>
+        <v>-0.1245450895448039</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03066929132192571</v>
+        <v>0.03023925115273641</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1234014009559371</v>
+        <v>0.1231317719617088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06227244890323848</v>
+        <v>0.05724519745045343</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01126119423412915</v>
+        <v>-0.01502845237786458</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05322267136143649</v>
+        <v>0.05987802982702531</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01551051163823635</v>
+        <v>-0.01836166279986166</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05158973971821248</v>
+        <v>0.04828887445168252</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08867412903972234</v>
+        <v>0.08483564671811039</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.006353422399225804</v>
+        <v>0.0002566578019010416</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2494421352528624</v>
+        <v>0.2571916924684575</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3511264845848348</v>
+        <v>0.3566107882802463</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2629024817963849</v>
+        <v>0.2619142606138821</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.115057648067061</v>
+        <v>0.1130883080625217</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1815640171533307</v>
+        <v>0.1816488259889645</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1013247007838118</v>
+        <v>0.09506907414939751</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-7.47905682806207</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-7.822289257925874</v>
+        <v>-7.822289257925896</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-6.410249493288756</v>
@@ -1306,7 +1306,7 @@
         <v>-5.416014610569587</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.176518819834395</v>
+        <v>-3.176518819834406</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.64076599794437</v>
+        <v>-13.84112312096121</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.87421677332886</v>
+        <v>-12.68040886034917</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-13.75800635421336</v>
+        <v>-14.08767592035768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.28534170576754</v>
+        <v>-13.8149699707372</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.918297616688378</v>
+        <v>-9.420742323205969</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.765904982388831</v>
+        <v>-4.482453482225517</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.97233728181847</v>
+        <v>-11.44931271444986</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.844471293129699</v>
+        <v>-9.852428955906468</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.323397157745315</v>
+        <v>-7.409796962554709</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-2.831193979528008</v>
+        <v>-3.077450251388888</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.165609550726838</v>
+        <v>-1.940930909768583</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.20246877225397</v>
+        <v>-2.055713743783537</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3425767764833689</v>
+        <v>-0.3098478944065769</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.960163739026379</v>
+        <v>3.215083939874683</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.079137774148467</v>
+        <v>7.007856202644144</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-3.133290382428196</v>
+        <v>-3.023621522327165</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.237860966861791</v>
+        <v>-1.402982771336369</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.15262897556673</v>
+        <v>1.330511542056322</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.08427742193538895</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.08814512142993015</v>
+        <v>-0.0881451214299304</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.08834126044173531</v>
@@ -1411,7 +1411,7 @@
         <v>-0.06727035948284711</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.03945439188758326</v>
+        <v>-0.03945439188758339</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1493487364469433</v>
+        <v>-0.1526273474048706</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1418886287594559</v>
+        <v>-0.1404225531337338</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1520628736608398</v>
+        <v>-0.1581811958754992</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.175647873161139</v>
+        <v>-0.1821234410201926</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.13284631203235</v>
+        <v>-0.1266488945534152</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04980550521518965</v>
+        <v>-0.0602871524182337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1465095860885729</v>
+        <v>-0.1385965554050774</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1197402469763076</v>
+        <v>-0.1209036061364969</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.0891489764603698</v>
+        <v>-0.08994820047880835</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03256808013650007</v>
+        <v>-0.03589475945130435</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02506551303306795</v>
+        <v>-0.02237532208744834</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.026375434664442</v>
+        <v>-0.02363276138711244</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.00549210931016109</v>
+        <v>-0.003583705518037784</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04197709983150336</v>
+        <v>0.04578417205807665</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1161502281375344</v>
+        <v>0.1004562038357494</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.04035119108721894</v>
+        <v>-0.03833297561730641</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.01594270424211109</v>
+        <v>-0.01807988693721535</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.01474143731421649</v>
+        <v>0.01677846503733578</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.06359466345434717</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11.52225868393677</v>
+        <v>11.52225868393679</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.695648352175875</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.241305988153996</v>
+        <v>-3.755894278948817</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.385624412948828</v>
+        <v>-7.577812229430301</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.505047935344779</v>
+        <v>5.349414488245037</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.076412182843776</v>
+        <v>-4.572279510103535</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4642525588882552</v>
+        <v>-0.1680628180536785</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.726318676881322</v>
+        <v>9.748345001275947</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.369247683170677</v>
+        <v>-1.789137559966756</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.493775913396381</v>
+        <v>-1.630764440839282</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>9.515969867810094</v>
+        <v>9.695958056086541</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.35381267832429</v>
+        <v>11.97724761693002</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.962350899306863</v>
+        <v>7.590649704295346</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.44342309912832</v>
+        <v>18.34373602489031</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.88015873572141</v>
+        <v>14.00074297039369</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>18.62393570849408</v>
+        <v>17.98681863422246</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>25.03572060460046</v>
+        <v>24.82843411472264</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.93907878395883</v>
+        <v>10.64066425779536</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.71451810202402</v>
+        <v>10.75032691827907</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.15889686105204</v>
+        <v>19.64267800240179</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.0008048037068710706</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1458165826605347</v>
+        <v>0.1458165826605349</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.07302730384274818</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03904075018822623</v>
+        <v>-0.04490158408820423</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08990745175481965</v>
+        <v>-0.09022511816657912</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.06622229395934118</v>
+        <v>0.06402823520972725</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05991519777287675</v>
+        <v>-0.06841565585229216</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.006578745139609656</v>
+        <v>-0.002722514753644612</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1340042856823686</v>
+        <v>0.1408512538493123</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01843929211199295</v>
+        <v>-0.02351081443664764</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.02005251942904284</v>
+        <v>-0.02270063797870412</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1273776849251259</v>
+        <v>0.1282714490116835</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1635542467293563</v>
+        <v>0.159010890468434</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0930082523861224</v>
+        <v>0.1009572360767861</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2513777339196792</v>
+        <v>0.245784854715396</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2585577197603759</v>
+        <v>0.2369000372276679</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3153490609915618</v>
+        <v>0.303366150059035</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4233191170573056</v>
+        <v>0.4360705930702763</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1605982891766572</v>
+        <v>0.1593105948208799</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1584372832565458</v>
+        <v>0.154897715317702</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.301505653656489</v>
+        <v>0.2916540127829579</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>9.293372230406337</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.968359590963368</v>
+        <v>5.968359590963324</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.2153162892735261</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.39644024418857</v>
+        <v>-12.72099602098239</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-10.8642883214683</v>
+        <v>-10.81855060714835</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-14.9815289989138</v>
+        <v>-14.77708394699849</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7955710427785854</v>
+        <v>-1.001299463404736</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.105136985901658</v>
+        <v>1.169231284171954</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.110084345797296</v>
+        <v>-1.114283260037168</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.582334964465471</v>
+        <v>-5.098175519245188</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.915887913037525</v>
+        <v>-2.138572962806584</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.012109254594726</v>
+        <v>-6.215762107786769</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.368851502569851</v>
+        <v>0.1636000574655838</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.791408023393661</v>
+        <v>1.209691870325791</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-3.49435649189776</v>
+        <v>-2.770638724839283</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.97750684938618</v>
+        <v>14.05323583993221</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.76278699922237</v>
+        <v>16.88756781494785</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.55200615900212</v>
+        <v>12.39275063489844</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.771106149814334</v>
+        <v>5.270327967212742</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.525157028948469</v>
+        <v>7.514706916094283</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.284680212744731</v>
+        <v>3.074187705154727</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1389575640709554</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08924087938136226</v>
+        <v>0.08924087938136159</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.002804323566041195</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1379520166583142</v>
+        <v>-0.1412796827816833</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1224637912910404</v>
+        <v>-0.1220395088296489</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1678585470111223</v>
+        <v>-0.1674124111669505</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.01407466604327976</v>
+        <v>-0.01698891721279276</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.02840036390170855</v>
+        <v>0.01793576545556396</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.0149764967868094</v>
+        <v>-0.0165469211961689</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.0572696418161528</v>
+        <v>-0.0645504261557506</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.03674962754938721</v>
+        <v>-0.02707831783677545</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07614728752274526</v>
+        <v>-0.07809032479297445</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.00319983475338877</v>
+        <v>0.00174095553289486</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.02106833135249267</v>
+        <v>0.01420793330111818</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.04141851303244048</v>
+        <v>-0.03527498463116845</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2220237385544792</v>
+        <v>0.2222323590275731</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2611825187560909</v>
+        <v>0.2781406902828052</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1979628575850131</v>
+        <v>0.199358783580843</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07862011054197712</v>
+        <v>0.07289386618301463</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1003622632272872</v>
+        <v>0.1004773538662429</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.04420214556550688</v>
+        <v>0.04089527228406659</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-0.2264462750265039</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.9270899616530381</v>
+        <v>-0.9270899616530603</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>5.16208344583331</v>
@@ -1948,7 +1948,7 @@
         <v>2.179631936197202</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.642399619455026</v>
+        <v>1.642399619455037</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.985052163374534</v>
+        <v>-5.080732330718582</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.033045732901383</v>
+        <v>-4.603130157750734</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.805646489140089</v>
+        <v>-4.951011365760316</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.5809879053717661</v>
+        <v>0.09354696930290751</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4690092149169807</v>
+        <v>-0.3565600744002768</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.09978639038100619</v>
+        <v>-0.1594456006898325</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.243099333440538</v>
+        <v>-1.172916999458719</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.214905498811708</v>
+        <v>-0.9786373375547691</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.688346295163651</v>
+        <v>-1.304637890353745</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.354922681948334</v>
+        <v>2.762883834371737</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.776380977133428</v>
+        <v>3.947656701315509</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.996428083838825</v>
+        <v>3.372805923316216</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.869541758844813</v>
+        <v>10.11206963260662</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.501646635212492</v>
+        <v>9.159291228488595</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.603864787294761</v>
+        <v>9.163394085102942</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.29974076447978</v>
+        <v>5.261132986071545</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.2622523867571</v>
+        <v>5.472721161917353</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.48324006264363</v>
+        <v>4.79378228844356</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.00263256578472217</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.01077794418177786</v>
+        <v>-0.01077794418177812</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.0721004042655861</v>
@@ -2053,7 +2053,7 @@
         <v>0.02770491786777551</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.02087625245685078</v>
+        <v>0.02087625245685092</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05696900990250617</v>
+        <v>-0.05772890300184023</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.04608721192365746</v>
+        <v>-0.05221314536627313</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05474388728926437</v>
+        <v>-0.05558395633943559</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.008565007076422361</v>
+        <v>0.00112317232023483</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.005754882118570703</v>
+        <v>-0.004242476293466181</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001295570295679207</v>
+        <v>-0.001887064132575019</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.0154741848536127</v>
+        <v>-0.01458332511345334</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01467953198981397</v>
+        <v>-0.01212893100419604</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.02158402685656225</v>
+        <v>-0.01636244876567553</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.04014089352890336</v>
+        <v>0.03249320900790705</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.04497703379760778</v>
+        <v>0.04723606021703134</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.03575216530225119</v>
+        <v>0.04005047889588395</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1439003487659166</v>
+        <v>0.1472259746639285</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1383841692658613</v>
+        <v>0.1347560640601084</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1257500154944247</v>
+        <v>0.134956007827933</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06810342110054528</v>
+        <v>0.06807889662901867</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.06835587751889556</v>
+        <v>0.07108941233195358</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.05783289065232372</v>
+        <v>0.06256499176701084</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>5.596038284253679</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.1611919214542179</v>
+        <v>0.1611919214541957</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>6.74792781410053</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.073187117005653</v>
+        <v>1.103417901832835</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.66058585785746</v>
+        <v>1.530116228838146</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.754092478484155</v>
+        <v>-3.893744217783406</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.855550786559592</v>
+        <v>2.429031325432379</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.7135805594731066</v>
+        <v>0.9365277800649876</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.529579240056461</v>
+        <v>-4.705449047609665</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.014889710245713</v>
+        <v>3.186727764279371</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.52353268588807</v>
+        <v>2.508237933374398</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.10877660259565</v>
+        <v>-2.876291514901556</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8.334156797572707</v>
+        <v>8.667549643692277</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>9.068432928315172</v>
+        <v>9.203986905110471</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.647311773386448</v>
+        <v>3.850974452635847</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11.03268047828187</v>
+        <v>11.25273188043103</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.45795828805772</v>
+        <v>9.405373525305526</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.409764404410899</v>
+        <v>3.918141665070495</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>8.84053376456967</v>
+        <v>8.961925449936091</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>8.306439259367695</v>
+        <v>8.102486553347402</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.75905930779148</v>
+        <v>2.592355056985579</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.06796313025575673</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.001957654147005136</v>
+        <v>0.001957654147004866</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.09053576789938496</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.01274372788785675</v>
+        <v>0.01289864881926091</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.01976922257916554</v>
+        <v>0.01829369607986616</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.04420242787625971</v>
+        <v>-0.04661929361140688</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.03746722119881694</v>
+        <v>0.0327328588739526</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.009279069814287033</v>
+        <v>0.01226907367747026</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.0596932362178919</v>
+        <v>-0.06128780750611529</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.0381750571536796</v>
+        <v>0.0398258641049666</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.03122844642812348</v>
+        <v>0.03128305980307619</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.03910204256178219</v>
+        <v>-0.03633770456823422</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1047190986274754</v>
+        <v>0.107924800877004</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1137228883359002</v>
+        <v>0.114710183487428</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.04553119413507124</v>
+        <v>0.04824936905423439</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1546168733597924</v>
+        <v>0.1563947288126422</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1297631871770346</v>
+        <v>0.1300012989733024</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.04686406978176404</v>
+        <v>0.05455129822256813</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1159141572541567</v>
+        <v>0.1159874558130844</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1069305101957416</v>
+        <v>0.1049230523820988</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.0362289188110436</v>
+        <v>0.03409108549526581</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-0.05175881405700133</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-1.70982368008481</v>
+        <v>-1.709823680084799</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>1.949458280009364</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.869942251608868</v>
+        <v>-2.947186857841732</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.857358421103167</v>
+        <v>-1.750774893379327</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-3.595022482757679</v>
+        <v>-3.447127029763122</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.4673868083883883</v>
+        <v>-0.2695084010165609</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.605083071449401</v>
+        <v>2.796015866045442</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.368337736629527</v>
+        <v>2.391808185619827</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.9778773219415526</v>
+        <v>-1.104235459713679</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.995222602361803</v>
+        <v>0.9175618182152133</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.04454520230127218</v>
+        <v>-0.05533964967330347</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.7166099978352154</v>
+        <v>0.7569430966741734</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.718929588290974</v>
+        <v>1.701230864888204</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.03072603210291169</v>
+        <v>0.135019846331508</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.966693163806986</v>
+        <v>4.059595905892797</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>7.011605010673041</v>
+        <v>7.007614960144499</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>6.441635638579809</v>
+        <v>6.219359263563097</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.981579169836897</v>
+        <v>1.776003149253997</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.888597903509852</v>
+        <v>3.764027985446765</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.665229559971237</v>
+        <v>2.716932707653899</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.0006135748042023734</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.02026910293140127</v>
+        <v>-0.02026910293140113</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.02731762621855413</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.03394748687907005</v>
+        <v>-0.03464539343316076</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.02189533509163721</v>
+        <v>-0.02063031039485649</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.04226811675384717</v>
+        <v>-0.040783488121743</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.006433875694953154</v>
+        <v>-0.003760649228553686</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.0359366227709917</v>
+        <v>0.03839084221396039</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03233393647727799</v>
+        <v>0.03288969202502806</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.01249959216067354</v>
+        <v>-0.01405044384841364</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.01275237763029156</v>
+        <v>0.01161686261651099</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.0005688828410350891</v>
+        <v>-0.0004615158580777185</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.008562620211033354</v>
+        <v>0.00901433955645904</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.02055472522155873</v>
+        <v>0.02048460774066576</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.0004881033499601645</v>
+        <v>0.001465743515710312</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.05628314861550753</v>
+        <v>0.05794584680923093</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.0988481293855614</v>
+        <v>0.09914486137131832</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.0919103776955672</v>
+        <v>0.08880190607286811</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02570735650646159</v>
+        <v>0.02286806916911856</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.05040208451051723</v>
+        <v>0.0485052685496202</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.03468538616029625</v>
+        <v>0.03546582058937867</v>
       </c>
     </row>
     <row r="58">
